--- a/results_com/stroke_phase_metrics.xlsx
+++ b/results_com/stroke_phase_metrics.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>StrokeID</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>GyrX−Peak</t>
+  </si>
+  <si>
+    <t>FcoptCutoff_Hz</t>
   </si>
   <si>
     <t>PosPeak_fcopt</t>
@@ -3925,7 +3928,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR15"/>
+  <dimension ref="A1:AR16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:44">
@@ -4067,133 +4070,133 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>2.04794558387877</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="C2">
-        <v>2.45232888332808</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="D2">
-        <v>3.0450422569164</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="E2">
-        <v>2.91674370218028</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="F2">
-        <v>3.0554695942103</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="G2">
-        <v>3.42343673300667</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="H2">
-        <v>3.48774517186531</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="I2">
-        <v>3.65978626711412</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="J2">
-        <v>3.46514180558108</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="K2">
-        <v>3.53255353309353</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="L2">
-        <v>3.31869548687302</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="M2">
-        <v>3.78808224955638</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="N2">
-        <v>3.66695718870657</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="O2">
-        <v>3.51970881634257</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="P2">
-        <v>3.63308049297213</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="Q2">
-        <v>4.14883488673888</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="R2">
-        <v>3.77610514106346</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="S2">
-        <v>3.97428286048967</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="T2">
-        <v>3.97959035309112</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="U2">
-        <v>3.98220468709164</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="V2">
-        <v>4.03108729557974</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="W2">
-        <v>3.94995186470511</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="X2">
-        <v>3.99456858970478</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="Y2">
-        <v>4.14299230324232</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="Z2">
-        <v>4.4715290814998</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="AA2">
-        <v>4.82748457668268</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="AB2">
-        <v>4.9190735777005</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="AC2">
-        <v>5.10617529518173</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="AD2">
-        <v>5.16490712331021</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="AE2">
-        <v>5.10208069231144</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="AF2">
-        <v>5.20409644109262</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="AG2">
-        <v>5.42732117852431</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="AH2">
-        <v>5.24954690978036</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="AI2">
-        <v>5.27879120064588</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="AJ2">
-        <v>5.34461295541592</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="AK2">
-        <v>5.41922115006446</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="AL2">
-        <v>5.23063456673716</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="AM2">
-        <v>5.33093157638922</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="AN2">
-        <v>5.32401765057217</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="AO2">
-        <v>5.48085835325724</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="AP2">
-        <v>5.45445297011069</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="AQ2">
-        <v>5.44396851307891</v>
+        <v>4.75411324184818</v>
       </c>
       <c r="AR2">
-        <v>5.40399574335062</v>
+        <v>4.75411324184818</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -4201,133 +4204,133 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>2.08389077967451</v>
+        <v>2.04794558387877</v>
       </c>
       <c r="C3">
-        <v>2.51787957376896</v>
+        <v>2.45232888332808</v>
       </c>
       <c r="D3">
-        <v>3.1228502003203</v>
+        <v>3.0450422569164</v>
       </c>
       <c r="E3">
-        <v>2.99672801352469</v>
+        <v>2.91674370218028</v>
       </c>
       <c r="F3">
-        <v>3.12942294554999</v>
+        <v>3.0554695942103</v>
       </c>
       <c r="G3">
-        <v>3.51398837216782</v>
+        <v>3.42343673300667</v>
       </c>
       <c r="H3">
-        <v>3.57875881560562</v>
+        <v>3.48774517186531</v>
       </c>
       <c r="I3">
-        <v>3.74987553874884</v>
+        <v>3.65978626711412</v>
       </c>
       <c r="J3">
-        <v>3.55688240386483</v>
+        <v>3.46514180558108</v>
       </c>
       <c r="K3">
-        <v>3.62836746747021</v>
+        <v>3.53255353309353</v>
       </c>
       <c r="L3">
-        <v>3.40726621640814</v>
+        <v>3.31869548687302</v>
       </c>
       <c r="M3">
-        <v>3.89144259085154</v>
+        <v>3.78808224955638</v>
       </c>
       <c r="N3">
-        <v>3.7691959511199</v>
+        <v>3.66695718870657</v>
       </c>
       <c r="O3">
-        <v>3.61252893445428</v>
+        <v>3.51970881634257</v>
       </c>
       <c r="P3">
-        <v>3.73374441216008</v>
+        <v>3.63308049297213</v>
       </c>
       <c r="Q3">
-        <v>4.26056178196532</v>
+        <v>4.14883488673888</v>
       </c>
       <c r="R3">
-        <v>3.8834090191933</v>
+        <v>3.77610514106346</v>
       </c>
       <c r="S3">
-        <v>4.07711405200728</v>
+        <v>3.97428286048967</v>
       </c>
       <c r="T3">
-        <v>4.0853975817954</v>
+        <v>3.97959035309112</v>
       </c>
       <c r="U3">
-        <v>4.09010458702719</v>
+        <v>3.98220468709164</v>
       </c>
       <c r="V3">
-        <v>4.15381729859521</v>
+        <v>4.03108729557974</v>
       </c>
       <c r="W3">
-        <v>4.05459069954922</v>
+        <v>3.94995186470511</v>
       </c>
       <c r="X3">
-        <v>4.10256235363165</v>
+        <v>3.99456858970478</v>
       </c>
       <c r="Y3">
-        <v>4.26544170785312</v>
+        <v>4.14299230324232</v>
       </c>
       <c r="Z3">
-        <v>4.6060708497253</v>
+        <v>4.4715290814998</v>
       </c>
       <c r="AA3">
-        <v>4.97120924123934</v>
+        <v>4.82748457668268</v>
       </c>
       <c r="AB3">
-        <v>5.06131920577455</v>
+        <v>4.9190735777005</v>
       </c>
       <c r="AC3">
-        <v>5.25021068403327</v>
+        <v>5.10617529518173</v>
       </c>
       <c r="AD3">
-        <v>5.33260664553444</v>
+        <v>5.16490712331021</v>
       </c>
       <c r="AE3">
-        <v>5.24898914399229</v>
+        <v>5.10208069231144</v>
       </c>
       <c r="AF3">
-        <v>5.36215819425034</v>
+        <v>5.20409644109262</v>
       </c>
       <c r="AG3">
-        <v>5.58851528957675</v>
+        <v>5.42732117852431</v>
       </c>
       <c r="AH3">
-        <v>5.41512135029575</v>
+        <v>5.24954690978036</v>
       </c>
       <c r="AI3">
-        <v>5.44361274591991</v>
+        <v>5.27879120064588</v>
       </c>
       <c r="AJ3">
-        <v>5.50885788734618</v>
+        <v>5.34461295541592</v>
       </c>
       <c r="AK3">
-        <v>5.59490420371929</v>
+        <v>5.41922115006446</v>
       </c>
       <c r="AL3">
-        <v>5.39965607335965</v>
+        <v>5.23063456673716</v>
       </c>
       <c r="AM3">
-        <v>5.48851818702456</v>
+        <v>5.33093157638922</v>
       </c>
       <c r="AN3">
-        <v>5.50087463080083</v>
+        <v>5.32401765057217</v>
       </c>
       <c r="AO3">
-        <v>5.64072656213329</v>
+        <v>5.48085835325724</v>
       </c>
       <c r="AP3">
-        <v>5.60775869036237</v>
+        <v>5.45445297011069</v>
       </c>
       <c r="AQ3">
-        <v>5.60015474746013</v>
+        <v>5.44396851307891</v>
       </c>
       <c r="AR3">
-        <v>5.56073849712864</v>
+        <v>5.40399574335062</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -4335,133 +4338,133 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>0.0359451957957413</v>
+        <v>2.08389077967451</v>
       </c>
       <c r="C4">
-        <v>0.0655506904408778</v>
+        <v>2.51787957376896</v>
       </c>
       <c r="D4">
-        <v>0.0778079434038927</v>
+        <v>3.1228502003203</v>
       </c>
       <c r="E4">
-        <v>0.0799843113444045</v>
+        <v>2.99672801352469</v>
       </c>
       <c r="F4">
-        <v>0.0739533513396915</v>
+        <v>3.12942294554999</v>
       </c>
       <c r="G4">
-        <v>0.0905516391611552</v>
+        <v>3.51398837216782</v>
       </c>
       <c r="H4">
-        <v>0.0910136437403128</v>
+        <v>3.57875881560562</v>
       </c>
       <c r="I4">
-        <v>0.0900892716347257</v>
+        <v>3.74987553874884</v>
       </c>
       <c r="J4">
-        <v>0.091740598283752</v>
+        <v>3.55688240386483</v>
       </c>
       <c r="K4">
-        <v>0.0958139343766735</v>
+        <v>3.62836746747021</v>
       </c>
       <c r="L4">
-        <v>0.0885707295351219</v>
+        <v>3.40726621640814</v>
       </c>
       <c r="M4">
-        <v>0.103360341295153</v>
+        <v>3.89144259085154</v>
       </c>
       <c r="N4">
-        <v>0.102238762413327</v>
+        <v>3.7691959511199</v>
       </c>
       <c r="O4">
-        <v>0.0928201181117121</v>
+        <v>3.61252893445428</v>
       </c>
       <c r="P4">
-        <v>0.100663919187946</v>
+        <v>3.73374441216008</v>
       </c>
       <c r="Q4">
-        <v>0.111726895226438</v>
+        <v>4.26056178196532</v>
       </c>
       <c r="R4">
-        <v>0.10730387812984</v>
+        <v>3.8834090191933</v>
       </c>
       <c r="S4">
-        <v>0.102831191517605</v>
+        <v>4.07711405200728</v>
       </c>
       <c r="T4">
-        <v>0.105807228704279</v>
+        <v>4.0853975817954</v>
       </c>
       <c r="U4">
-        <v>0.10789989993555</v>
+        <v>4.09010458702719</v>
       </c>
       <c r="V4">
-        <v>0.122730003015468</v>
+        <v>4.15381729859521</v>
       </c>
       <c r="W4">
-        <v>0.104638834844105</v>
+        <v>4.05459069954922</v>
       </c>
       <c r="X4">
-        <v>0.107993763926867</v>
+        <v>4.10256235363165</v>
       </c>
       <c r="Y4">
-        <v>0.122449404610803</v>
+        <v>4.26544170785312</v>
       </c>
       <c r="Z4">
-        <v>0.134541768225501</v>
+        <v>4.6060708497253</v>
       </c>
       <c r="AA4">
-        <v>0.143724664556657</v>
+        <v>4.97120924123934</v>
       </c>
       <c r="AB4">
-        <v>0.142245628074053</v>
+        <v>5.06131920577455</v>
       </c>
       <c r="AC4">
-        <v>0.144035388851537</v>
+        <v>5.25021068403327</v>
       </c>
       <c r="AD4">
-        <v>0.167699522224227</v>
+        <v>5.33260664553444</v>
       </c>
       <c r="AE4">
-        <v>0.146908451680853</v>
+        <v>5.24898914399229</v>
       </c>
       <c r="AF4">
-        <v>0.158061753157725</v>
+        <v>5.36215819425034</v>
       </c>
       <c r="AG4">
-        <v>0.161194111052443</v>
+        <v>5.58851528957675</v>
       </c>
       <c r="AH4">
-        <v>0.16557444051539</v>
+        <v>5.41512135029575</v>
       </c>
       <c r="AI4">
-        <v>0.164821545274029</v>
+        <v>5.44361274591991</v>
       </c>
       <c r="AJ4">
-        <v>0.164244931930262</v>
+        <v>5.50885788734618</v>
       </c>
       <c r="AK4">
-        <v>0.175683053654823</v>
+        <v>5.59490420371929</v>
       </c>
       <c r="AL4">
-        <v>0.169021506622498</v>
+        <v>5.39965607335965</v>
       </c>
       <c r="AM4">
-        <v>0.157586610635333</v>
+        <v>5.48851818702456</v>
       </c>
       <c r="AN4">
-        <v>0.176856980228663</v>
+        <v>5.50087463080083</v>
       </c>
       <c r="AO4">
-        <v>0.159868208876042</v>
+        <v>5.64072656213329</v>
       </c>
       <c r="AP4">
-        <v>0.153305720251683</v>
+        <v>5.60775869036237</v>
       </c>
       <c r="AQ4">
-        <v>0.15618623438122</v>
+        <v>5.60015474746013</v>
       </c>
       <c r="AR4">
-        <v>0.156742753778014</v>
+        <v>5.56073849712864</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -4469,133 +4472,133 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>1.16187004683207</v>
+        <v>0.0359451957957413</v>
       </c>
       <c r="C5">
-        <v>1.0103800359288</v>
+        <v>0.0655506904408778</v>
       </c>
       <c r="D5">
-        <v>1.14409902755135</v>
+        <v>0.0778079434038927</v>
       </c>
       <c r="E5">
-        <v>1.08761819090176</v>
+        <v>0.0799843113444045</v>
       </c>
       <c r="F5">
-        <v>1.06183555774377</v>
+        <v>0.0739533513396915</v>
       </c>
       <c r="G5">
-        <v>1.0914986411278</v>
+        <v>0.0905516391611552</v>
       </c>
       <c r="H5">
-        <v>1.16586423219116</v>
+        <v>0.0910136437403128</v>
       </c>
       <c r="I5">
-        <v>1.108113322637</v>
+        <v>0.0900892716347257</v>
       </c>
       <c r="J5">
-        <v>1.10011884594021</v>
+        <v>0.091740598283752</v>
       </c>
       <c r="K5">
-        <v>1.06001891858119</v>
+        <v>0.0958139343766735</v>
       </c>
       <c r="L5">
-        <v>1.03371106921025</v>
+        <v>0.0885707295351219</v>
       </c>
       <c r="M5">
-        <v>1.13313387141082</v>
+        <v>0.103360341295153</v>
       </c>
       <c r="N5">
-        <v>1.06747514237242</v>
+        <v>0.102238762413327</v>
       </c>
       <c r="O5">
-        <v>1.06563137088522</v>
+        <v>0.0928201181117121</v>
       </c>
       <c r="P5">
-        <v>1.10047155659519</v>
+        <v>0.100663919187946</v>
       </c>
       <c r="Q5">
-        <v>1.19668923500623</v>
+        <v>0.111726895226438</v>
       </c>
       <c r="R5">
-        <v>1.15932511646006</v>
+        <v>0.10730387812984</v>
       </c>
       <c r="S5">
-        <v>1.15163269136833</v>
+        <v>0.102831191517605</v>
       </c>
       <c r="T5">
-        <v>1.13646505284416</v>
+        <v>0.105807228704279</v>
       </c>
       <c r="U5">
-        <v>1.13738186470398</v>
+        <v>0.10789989993555</v>
       </c>
       <c r="V5">
-        <v>1.22248783328381</v>
+        <v>0.122730003015468</v>
       </c>
       <c r="W5">
-        <v>1.17260044084062</v>
+        <v>0.104638834844105</v>
       </c>
       <c r="X5">
-        <v>1.14494167048098</v>
+        <v>0.107993763926867</v>
       </c>
       <c r="Y5">
-        <v>1.16197009879609</v>
+        <v>0.122449404610803</v>
       </c>
       <c r="Z5">
-        <v>1.177841973001</v>
+        <v>0.134541768225501</v>
       </c>
       <c r="AA5">
-        <v>1.31023104234668</v>
+        <v>0.143724664556657</v>
       </c>
       <c r="AB5">
-        <v>1.28057876568122</v>
+        <v>0.142245628074053</v>
       </c>
       <c r="AC5">
-        <v>1.38746533441054</v>
+        <v>0.144035388851537</v>
       </c>
       <c r="AD5">
-        <v>1.33657930028049</v>
+        <v>0.167699522224227</v>
       </c>
       <c r="AE5">
-        <v>1.36262438024534</v>
+        <v>0.146908451680853</v>
       </c>
       <c r="AF5">
-        <v>1.34984693679806</v>
+        <v>0.158061753157725</v>
       </c>
       <c r="AG5">
-        <v>1.4036479788858</v>
+        <v>0.161194111052443</v>
       </c>
       <c r="AH5">
-        <v>1.37577554004761</v>
+        <v>0.16557444051539</v>
       </c>
       <c r="AI5">
-        <v>1.33857841369733</v>
+        <v>0.164821545274029</v>
       </c>
       <c r="AJ5">
-        <v>1.35277289744433</v>
+        <v>0.164244931930262</v>
       </c>
       <c r="AK5">
-        <v>1.36637512827568</v>
+        <v>0.175683053654823</v>
       </c>
       <c r="AL5">
-        <v>1.3475172228406</v>
+        <v>0.169021506622498</v>
       </c>
       <c r="AM5">
-        <v>1.33822868112098</v>
+        <v>0.157586610635333</v>
       </c>
       <c r="AN5">
-        <v>1.32260207451393</v>
+        <v>0.176856980228663</v>
       </c>
       <c r="AO5">
-        <v>1.39880761649264</v>
+        <v>0.159868208876042</v>
       </c>
       <c r="AP5">
-        <v>1.4472406905655</v>
+        <v>0.153305720251683</v>
       </c>
       <c r="AQ5">
-        <v>1.39082114713849</v>
+        <v>0.15618623438122</v>
       </c>
       <c r="AR5">
-        <v>1.45212051389058</v>
+        <v>0.156742753778014</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -4603,133 +4606,133 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>1.17507210031787</v>
+        <v>1.16187004683207</v>
       </c>
       <c r="C6">
-        <v>1.02335619046397</v>
+        <v>1.0103800359288</v>
       </c>
       <c r="D6">
-        <v>1.15999537377635</v>
+        <v>1.14409902755135</v>
       </c>
       <c r="E6">
-        <v>1.10413700206865</v>
+        <v>1.08761819090176</v>
       </c>
       <c r="F6">
-        <v>1.07996670944384</v>
+        <v>1.06183555774377</v>
       </c>
       <c r="G6">
-        <v>1.11045429074627</v>
+        <v>1.0914986411278</v>
       </c>
       <c r="H6">
-        <v>1.1840326083105</v>
+        <v>1.16586423219116</v>
       </c>
       <c r="I6">
-        <v>1.13045807994675</v>
+        <v>1.108113322637</v>
       </c>
       <c r="J6">
-        <v>1.11912619117271</v>
+        <v>1.10011884594021</v>
       </c>
       <c r="K6">
-        <v>1.08196669488249</v>
+        <v>1.06001891858119</v>
       </c>
       <c r="L6">
-        <v>1.05046839103567</v>
+        <v>1.03371106921025</v>
       </c>
       <c r="M6">
-        <v>1.15599586265718</v>
+        <v>1.13313387141082</v>
       </c>
       <c r="N6">
-        <v>1.08850805705618</v>
+        <v>1.06747514237242</v>
       </c>
       <c r="O6">
-        <v>1.08535267045932</v>
+        <v>1.06563137088522</v>
       </c>
       <c r="P6">
-        <v>1.11951829064381</v>
+        <v>1.10047155659519</v>
       </c>
       <c r="Q6">
-        <v>1.22030911812449</v>
+        <v>1.19668923500623</v>
       </c>
       <c r="R6">
-        <v>1.18074704599347</v>
+        <v>1.15932511646006</v>
       </c>
       <c r="S6">
-        <v>1.17693412281636</v>
+        <v>1.15163269136833</v>
       </c>
       <c r="T6">
-        <v>1.15922766629703</v>
+        <v>1.13646505284416</v>
       </c>
       <c r="U6">
-        <v>1.16250563181272</v>
+        <v>1.13738186470398</v>
       </c>
       <c r="V6">
-        <v>1.24554929235933</v>
+        <v>1.22248783328381</v>
       </c>
       <c r="W6">
-        <v>1.19638075216454</v>
+        <v>1.17260044084062</v>
       </c>
       <c r="X6">
-        <v>1.16830922199559</v>
+        <v>1.14494167048098</v>
       </c>
       <c r="Y6">
-        <v>1.18491962273286</v>
+        <v>1.16197009879609</v>
       </c>
       <c r="Z6">
-        <v>1.201404586232</v>
+        <v>1.177841973001</v>
       </c>
       <c r="AA6">
-        <v>1.33778915386427</v>
+        <v>1.31023104234668</v>
       </c>
       <c r="AB6">
-        <v>1.30900397644258</v>
+        <v>1.28057876568122</v>
       </c>
       <c r="AC6">
-        <v>1.41733223680032</v>
+        <v>1.38746533441054</v>
       </c>
       <c r="AD6">
-        <v>1.36696940909995</v>
+        <v>1.33657930028049</v>
       </c>
       <c r="AE6">
-        <v>1.39470536266862</v>
+        <v>1.36262438024534</v>
       </c>
       <c r="AF6">
-        <v>1.38489922777547</v>
+        <v>1.34984693679806</v>
       </c>
       <c r="AG6">
-        <v>1.44148226227155</v>
+        <v>1.4036479788858</v>
       </c>
       <c r="AH6">
-        <v>1.41121106430343</v>
+        <v>1.37577554004761</v>
       </c>
       <c r="AI6">
-        <v>1.37397997923054</v>
+        <v>1.33857841369733</v>
       </c>
       <c r="AJ6">
-        <v>1.38658819035814</v>
+        <v>1.35277289744433</v>
       </c>
       <c r="AK6">
-        <v>1.40234825637137</v>
+        <v>1.36637512827568</v>
       </c>
       <c r="AL6">
-        <v>1.38219419820551</v>
+        <v>1.3475172228406</v>
       </c>
       <c r="AM6">
-        <v>1.37277819350612</v>
+        <v>1.33822868112098</v>
       </c>
       <c r="AN6">
-        <v>1.3607529947805</v>
+        <v>1.32260207451393</v>
       </c>
       <c r="AO6">
-        <v>1.43721308759654</v>
+        <v>1.39880761649264</v>
       </c>
       <c r="AP6">
-        <v>1.48609054623485</v>
+        <v>1.4472406905655</v>
       </c>
       <c r="AQ6">
-        <v>1.42648440105531</v>
+        <v>1.39082114713849</v>
       </c>
       <c r="AR6">
-        <v>1.49093419936713</v>
+        <v>1.45212051389058</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -4737,133 +4740,133 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.0132020534858057</v>
+        <v>1.17507210031787</v>
       </c>
       <c r="C7">
-        <v>0.0129761545351741</v>
+        <v>1.02335619046397</v>
       </c>
       <c r="D7">
-        <v>0.015896346224999</v>
+        <v>1.15999537377635</v>
       </c>
       <c r="E7">
-        <v>0.0165188111668866</v>
+        <v>1.10413700206865</v>
       </c>
       <c r="F7">
-        <v>0.01813115170007</v>
+        <v>1.07996670944384</v>
       </c>
       <c r="G7">
-        <v>0.018955649618474</v>
+        <v>1.11045429074627</v>
       </c>
       <c r="H7">
-        <v>0.0181683761193372</v>
+        <v>1.1840326083105</v>
       </c>
       <c r="I7">
-        <v>0.0223447573097446</v>
+        <v>1.13045807994675</v>
       </c>
       <c r="J7">
-        <v>0.0190073452324919</v>
+        <v>1.11912619117271</v>
       </c>
       <c r="K7">
-        <v>0.0219477763013007</v>
+        <v>1.08196669488249</v>
       </c>
       <c r="L7">
-        <v>0.0167573218254209</v>
+        <v>1.05046839103567</v>
       </c>
       <c r="M7">
-        <v>0.0228619912463566</v>
+        <v>1.15599586265718</v>
       </c>
       <c r="N7">
-        <v>0.0210329146837616</v>
+        <v>1.08850805705618</v>
       </c>
       <c r="O7">
-        <v>0.0197212995741025</v>
+        <v>1.08535267045932</v>
       </c>
       <c r="P7">
-        <v>0.0190467340486247</v>
+        <v>1.11951829064381</v>
       </c>
       <c r="Q7">
-        <v>0.0236198831182592</v>
+        <v>1.22030911812449</v>
       </c>
       <c r="R7">
-        <v>0.0214219295334082</v>
+        <v>1.18074704599347</v>
       </c>
       <c r="S7">
-        <v>0.0253014314480258</v>
+        <v>1.17693412281636</v>
       </c>
       <c r="T7">
-        <v>0.0227626134528667</v>
+        <v>1.15922766629703</v>
       </c>
       <c r="U7">
-        <v>0.0251237671087405</v>
+        <v>1.16250563181272</v>
       </c>
       <c r="V7">
-        <v>0.02306145907552</v>
+        <v>1.24554929235933</v>
       </c>
       <c r="W7">
-        <v>0.0237803113239243</v>
+        <v>1.19638075216454</v>
       </c>
       <c r="X7">
-        <v>0.0233675515146043</v>
+        <v>1.16830922199559</v>
       </c>
       <c r="Y7">
-        <v>0.022949523936775</v>
+        <v>1.18491962273286</v>
       </c>
       <c r="Z7">
-        <v>0.0235626132310005</v>
+        <v>1.201404586232</v>
       </c>
       <c r="AA7">
-        <v>0.027558111517584</v>
+        <v>1.33778915386427</v>
       </c>
       <c r="AB7">
-        <v>0.0284252107613594</v>
+        <v>1.30900397644258</v>
       </c>
       <c r="AC7">
-        <v>0.0298669023897735</v>
+        <v>1.41733223680032</v>
       </c>
       <c r="AD7">
-        <v>0.0303901088194669</v>
+        <v>1.36696940909995</v>
       </c>
       <c r="AE7">
-        <v>0.0320809824232824</v>
+        <v>1.39470536266862</v>
       </c>
       <c r="AF7">
-        <v>0.0350522909774065</v>
+        <v>1.38489922777547</v>
       </c>
       <c r="AG7">
-        <v>0.0378342833857461</v>
+        <v>1.44148226227155</v>
       </c>
       <c r="AH7">
-        <v>0.0354355242558266</v>
+        <v>1.41121106430343</v>
       </c>
       <c r="AI7">
-        <v>0.0354015655332072</v>
+        <v>1.37397997923054</v>
       </c>
       <c r="AJ7">
-        <v>0.0338152929138156</v>
+        <v>1.38658819035814</v>
       </c>
       <c r="AK7">
-        <v>0.0359731280956979</v>
+        <v>1.40234825637137</v>
       </c>
       <c r="AL7">
-        <v>0.034676975364903</v>
+        <v>1.38219419820551</v>
       </c>
       <c r="AM7">
-        <v>0.0345495123851451</v>
+        <v>1.37277819350612</v>
       </c>
       <c r="AN7">
-        <v>0.0381509202665664</v>
+        <v>1.3607529947805</v>
       </c>
       <c r="AO7">
-        <v>0.038405471103895</v>
+        <v>1.43721308759654</v>
       </c>
       <c r="AP7">
-        <v>0.0388498556693515</v>
+        <v>1.48609054623485</v>
       </c>
       <c r="AQ7">
-        <v>0.0356632539168187</v>
+        <v>1.42648440105531</v>
       </c>
       <c r="AR7">
-        <v>0.0388136854765531</v>
+        <v>1.49093419936713</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -4871,133 +4874,133 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>0.0393921184878709</v>
+        <v>0.0132020534858057</v>
       </c>
       <c r="C8">
-        <v>0.0427051243234041</v>
+        <v>0.0129761545351741</v>
       </c>
       <c r="D8">
-        <v>0.0547559524347248</v>
+        <v>0.015896346224999</v>
       </c>
       <c r="E8">
-        <v>0.0528581212594615</v>
+        <v>0.0165188111668866</v>
       </c>
       <c r="F8">
-        <v>0.0569370344026217</v>
+        <v>0.01813115170007</v>
       </c>
       <c r="G8">
-        <v>0.0619857994439202</v>
+        <v>0.018955649618474</v>
       </c>
       <c r="H8">
-        <v>0.0609317319122836</v>
+        <v>0.0181683761193372</v>
       </c>
       <c r="I8">
-        <v>0.0635004474983908</v>
+        <v>0.0223447573097446</v>
       </c>
       <c r="J8">
-        <v>0.0596295266971662</v>
+        <v>0.0190073452324919</v>
       </c>
       <c r="K8">
-        <v>0.0599131809525817</v>
+        <v>0.0219477763013007</v>
       </c>
       <c r="L8">
-        <v>0.0581497635851606</v>
+        <v>0.0167573218254209</v>
       </c>
       <c r="M8">
-        <v>0.0660645044234183</v>
+        <v>0.0228619912463566</v>
       </c>
       <c r="N8">
-        <v>0.0640424737137917</v>
+        <v>0.0210329146837616</v>
       </c>
       <c r="O8">
-        <v>0.0609210368937343</v>
+        <v>0.0197212995741025</v>
       </c>
       <c r="P8">
-        <v>0.062240452212547</v>
+        <v>0.0190467340486247</v>
       </c>
       <c r="Q8">
-        <v>0.0689370414809408</v>
+        <v>0.0236198831182592</v>
       </c>
       <c r="R8">
-        <v>0.0671602508713064</v>
+        <v>0.0214219295334082</v>
       </c>
       <c r="S8">
-        <v>0.0684345782474307</v>
+        <v>0.0253014314480258</v>
       </c>
       <c r="T8">
-        <v>0.0718661023665122</v>
+        <v>0.0227626134528667</v>
       </c>
       <c r="U8">
-        <v>0.073473489965591</v>
+        <v>0.0251237671087405</v>
       </c>
       <c r="V8">
-        <v>0.069379587727154</v>
+        <v>0.02306145907552</v>
       </c>
       <c r="W8">
-        <v>0.073436911483553</v>
+        <v>0.0237803113239243</v>
       </c>
       <c r="X8">
-        <v>0.0699361546703597</v>
+        <v>0.0233675515146043</v>
       </c>
       <c r="Y8">
-        <v>0.0738393731631385</v>
+        <v>0.022949523936775</v>
       </c>
       <c r="Z8">
-        <v>0.0777022096456379</v>
+        <v>0.0235626132310005</v>
       </c>
       <c r="AA8">
-        <v>0.0955515158174352</v>
+        <v>0.027558111517584</v>
       </c>
       <c r="AB8">
-        <v>0.103419831740465</v>
+        <v>0.0284252107613594</v>
       </c>
       <c r="AC8">
-        <v>0.116957248266391</v>
+        <v>0.0298669023897735</v>
       </c>
       <c r="AD8">
-        <v>0.114080439127404</v>
+        <v>0.0303901088194669</v>
       </c>
       <c r="AE8">
-        <v>0.122976218901038</v>
+        <v>0.0320809824232824</v>
       </c>
       <c r="AF8">
-        <v>0.123841844256294</v>
+        <v>0.0350522909774065</v>
       </c>
       <c r="AG8">
-        <v>0.133948012648316</v>
+        <v>0.0378342833857461</v>
       </c>
       <c r="AH8">
-        <v>0.129999555707362</v>
+        <v>0.0354355242558266</v>
       </c>
       <c r="AI8">
-        <v>0.128026070379048</v>
+        <v>0.0354015655332072</v>
       </c>
       <c r="AJ8">
-        <v>0.12992235034838</v>
+        <v>0.0338152929138156</v>
       </c>
       <c r="AK8">
-        <v>0.128424294880966</v>
+        <v>0.0359731280956979</v>
       </c>
       <c r="AL8">
-        <v>0.130808077179754</v>
+        <v>0.034676975364903</v>
       </c>
       <c r="AM8">
-        <v>0.133923007948328</v>
+        <v>0.0345495123851451</v>
       </c>
       <c r="AN8">
-        <v>0.130099864584997</v>
+        <v>0.0381509202665664</v>
       </c>
       <c r="AO8">
-        <v>0.130505691719718</v>
+        <v>0.038405471103895</v>
       </c>
       <c r="AP8">
-        <v>0.133884800055672</v>
+        <v>0.0388498556693515</v>
       </c>
       <c r="AQ8">
-        <v>0.130550409742026</v>
+        <v>0.0356632539168187</v>
       </c>
       <c r="AR8">
-        <v>0.13348123145137</v>
+        <v>0.0388136854765531</v>
       </c>
     </row>
     <row r="9" spans="1:44">
@@ -5005,133 +5008,133 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>0.00209935492693707</v>
+        <v>0.0393921184878709</v>
       </c>
       <c r="C9">
-        <v>0.00248694817092739</v>
+        <v>0.0427051243234041</v>
       </c>
       <c r="D9">
-        <v>0.00432071359280724</v>
+        <v>0.0547559524347248</v>
       </c>
       <c r="E9">
-        <v>0.00394000246351689</v>
+        <v>0.0528581212594615</v>
       </c>
       <c r="F9">
-        <v>0.00473186363010822</v>
+        <v>0.0569370344026217</v>
       </c>
       <c r="G9">
-        <v>0.00599039819085904</v>
+        <v>0.0619857994439202</v>
       </c>
       <c r="H9">
-        <v>0.00534688766826789</v>
+        <v>0.0609317319122836</v>
       </c>
       <c r="I9">
-        <v>0.00625504012442784</v>
+        <v>0.0635004474983908</v>
       </c>
       <c r="J9">
-        <v>0.00529042731077269</v>
+        <v>0.0596295266971662</v>
       </c>
       <c r="K9">
-        <v>0.00520600264372673</v>
+        <v>0.0599131809525817</v>
       </c>
       <c r="L9">
-        <v>0.00539107301372139</v>
+        <v>0.0581497635851606</v>
       </c>
       <c r="M9">
-        <v>0.00644513036096684</v>
+        <v>0.0660645044234183</v>
       </c>
       <c r="N9">
-        <v>0.00651262040154835</v>
+        <v>0.0640424737137917</v>
       </c>
       <c r="O9">
-        <v>0.00549443197559648</v>
+        <v>0.0609210368937343</v>
       </c>
       <c r="P9">
-        <v>0.00605847328182174</v>
+        <v>0.062240452212547</v>
       </c>
       <c r="Q9">
-        <v>0.00762632479126371</v>
+        <v>0.0689370414809408</v>
       </c>
       <c r="R9">
-        <v>0.00703060294578122</v>
+        <v>0.0671602508713064</v>
       </c>
       <c r="S9">
-        <v>0.00746797394982075</v>
+        <v>0.0684345782474307</v>
       </c>
       <c r="T9">
-        <v>0.00862569877854274</v>
+        <v>0.0718661023665122</v>
       </c>
       <c r="U9">
-        <v>0.00871950291994558</v>
+        <v>0.073473489965591</v>
       </c>
       <c r="V9">
-        <v>0.00741760925939287</v>
+        <v>0.069379587727154</v>
       </c>
       <c r="W9">
-        <v>0.00836321785304565</v>
+        <v>0.073436911483553</v>
       </c>
       <c r="X9">
-        <v>0.00802684086060773</v>
+        <v>0.0699361546703597</v>
       </c>
       <c r="Y9">
-        <v>0.00919948800310298</v>
+        <v>0.0738393731631385</v>
       </c>
       <c r="Z9">
-        <v>0.0105212034053883</v>
+        <v>0.0777022096456379</v>
       </c>
       <c r="AA9">
-        <v>0.0148223393994767</v>
+        <v>0.0955515158174352</v>
       </c>
       <c r="AB9">
-        <v>0.0186467607081724</v>
+        <v>0.103419831740465</v>
       </c>
       <c r="AC9">
-        <v>0.0228747587635712</v>
+        <v>0.116957248266391</v>
       </c>
       <c r="AD9">
-        <v>0.021508258856305</v>
+        <v>0.114080439127404</v>
       </c>
       <c r="AE9">
-        <v>0.0248441823041024</v>
+        <v>0.122976218901038</v>
       </c>
       <c r="AF9">
-        <v>0.0251729801467311</v>
+        <v>0.123841844256294</v>
       </c>
       <c r="AG9">
-        <v>0.0302878353082783</v>
+        <v>0.133948012648316</v>
       </c>
       <c r="AH9">
-        <v>0.028204821561118</v>
+        <v>0.129999555707362</v>
       </c>
       <c r="AI9">
-        <v>0.0274113719808394</v>
+        <v>0.128026070379048</v>
       </c>
       <c r="AJ9">
-        <v>0.0284194420923768</v>
+        <v>0.12992235034838</v>
       </c>
       <c r="AK9">
-        <v>0.0265195041659093</v>
+        <v>0.128424294880966</v>
       </c>
       <c r="AL9">
-        <v>0.0298137553102478</v>
+        <v>0.130808077179754</v>
       </c>
       <c r="AM9">
-        <v>0.0306639415535371</v>
+        <v>0.133923007948328</v>
       </c>
       <c r="AN9">
-        <v>0.0290293021583661</v>
+        <v>0.130099864584997</v>
       </c>
       <c r="AO9">
-        <v>0.0273855218711475</v>
+        <v>0.130505691719718</v>
       </c>
       <c r="AP9">
-        <v>0.0278832561743169</v>
+        <v>0.133884800055672</v>
       </c>
       <c r="AQ9">
-        <v>0.0284009791330512</v>
+        <v>0.130550409742026</v>
       </c>
       <c r="AR9">
-        <v>0.0282455917486214</v>
+        <v>0.13348123145137</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -5139,133 +5142,133 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>0.00219952432681832</v>
+        <v>0.00209935492693707</v>
       </c>
       <c r="C10">
-        <v>0.00260768469630046</v>
+        <v>0.00248694817092739</v>
       </c>
       <c r="D10">
-        <v>0.00454403523352143</v>
+        <v>0.00432071359280724</v>
       </c>
       <c r="E10">
-        <v>0.00414315550896402</v>
+        <v>0.00394000246351689</v>
       </c>
       <c r="F10">
-        <v>0.00498300856720184</v>
+        <v>0.00473186363010822</v>
       </c>
       <c r="G10">
-        <v>0.0063316260987566</v>
+        <v>0.00599039819085904</v>
       </c>
       <c r="H10">
-        <v>0.00563046961228268</v>
+        <v>0.00534688766826789</v>
       </c>
       <c r="I10">
-        <v>0.00660681941798766</v>
+        <v>0.00625504012442784</v>
       </c>
       <c r="J10">
-        <v>0.00557858436687676</v>
+        <v>0.00529042731077269</v>
       </c>
       <c r="K10">
-        <v>0.00548300199782315</v>
+        <v>0.00520600264372673</v>
       </c>
       <c r="L10">
-        <v>0.00570790061677776</v>
+        <v>0.00539107301372139</v>
       </c>
       <c r="M10">
-        <v>0.00679480045396243</v>
+        <v>0.00644513036096684</v>
       </c>
       <c r="N10">
-        <v>0.00689037046938614</v>
+        <v>0.00651262040154835</v>
       </c>
       <c r="O10">
-        <v>0.00579239468641895</v>
+        <v>0.00549443197559648</v>
       </c>
       <c r="P10">
-        <v>0.00640952170394794</v>
+        <v>0.00605847328182174</v>
       </c>
       <c r="Q10">
-        <v>0.00807715124544404</v>
+        <v>0.00762632479126371</v>
       </c>
       <c r="R10">
-        <v>0.00742590697195958</v>
+        <v>0.00703060294578122</v>
       </c>
       <c r="S10">
-        <v>0.00790980250755238</v>
+        <v>0.00746797394982075</v>
       </c>
       <c r="T10">
-        <v>0.00915422393440883</v>
+        <v>0.00862569877854274</v>
       </c>
       <c r="U10">
-        <v>0.00923416903719427</v>
+        <v>0.00871950291994558</v>
       </c>
       <c r="V10">
-        <v>0.00783900663040264</v>
+        <v>0.00741760925939287</v>
       </c>
       <c r="W10">
-        <v>0.00883904659035789</v>
+        <v>0.00836321785304565</v>
       </c>
       <c r="X10">
-        <v>0.00851205673705138</v>
+        <v>0.00802684086060773</v>
       </c>
       <c r="Y10">
-        <v>0.009765836583219</v>
+        <v>0.00919948800310298</v>
       </c>
       <c r="Z10">
-        <v>0.0112063339121899</v>
+        <v>0.0105212034053883</v>
       </c>
       <c r="AA10">
-        <v>0.0156969396084036</v>
+        <v>0.0148223393994767</v>
       </c>
       <c r="AB10">
-        <v>0.0198422047988941</v>
+        <v>0.0186467607081724</v>
       </c>
       <c r="AC10">
-        <v>0.0242759374590499</v>
+        <v>0.0228747587635712</v>
       </c>
       <c r="AD10">
-        <v>0.022819024958892</v>
+        <v>0.021508258856305</v>
       </c>
       <c r="AE10">
-        <v>0.0263457640672774</v>
+        <v>0.0248441823041024</v>
       </c>
       <c r="AF10">
-        <v>0.026680123326142</v>
+        <v>0.0251729801467311</v>
       </c>
       <c r="AG10">
-        <v>0.0321664657779457</v>
+        <v>0.0302878353082783</v>
       </c>
       <c r="AH10">
-        <v>0.0299137799601965</v>
+        <v>0.028204821561118</v>
       </c>
       <c r="AI10">
-        <v>0.0290823505902788</v>
+        <v>0.0274113719808394</v>
       </c>
       <c r="AJ10">
-        <v>0.0301905413132033</v>
+        <v>0.0284194420923768</v>
       </c>
       <c r="AK10">
-        <v>0.028084437419788</v>
+        <v>0.0265195041659093</v>
       </c>
       <c r="AL10">
-        <v>0.0317194828298008</v>
+        <v>0.0298137553102478</v>
       </c>
       <c r="AM10">
-        <v>0.032574931991355</v>
+        <v>0.0306639415535371</v>
       </c>
       <c r="AN10">
-        <v>0.0308501971595362</v>
+        <v>0.0290293021583661</v>
       </c>
       <c r="AO10">
-        <v>0.0290085213155213</v>
+        <v>0.0273855218711475</v>
       </c>
       <c r="AP10">
-        <v>0.0294508253751623</v>
+        <v>0.0278832561743169</v>
       </c>
       <c r="AQ10">
-        <v>0.0301491828630644</v>
+        <v>0.0284009791330512</v>
       </c>
       <c r="AR10">
-        <v>0.0298786714780992</v>
+        <v>0.0282455917486214</v>
       </c>
     </row>
     <row r="11" spans="1:44">
@@ -5273,133 +5276,133 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>-0.025</v>
+        <v>0.00219952432681832</v>
       </c>
       <c r="C11">
-        <v>-0.00833333333333333</v>
+        <v>0.00260768469630046</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.00454403523352143</v>
       </c>
       <c r="E11">
-        <v>-0.00833333333333333</v>
+        <v>0.00414315550896402</v>
       </c>
       <c r="F11">
-        <v>-0.00833333333333333</v>
+        <v>0.00498300856720184</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0063316260987566</v>
       </c>
       <c r="H11">
-        <v>-0.00833333333333333</v>
+        <v>0.00563046961228268</v>
       </c>
       <c r="I11">
-        <v>-0.00833333333333333</v>
+        <v>0.00660681941798766</v>
       </c>
       <c r="J11">
-        <v>-0.00833333333333333</v>
+        <v>0.00557858436687676</v>
       </c>
       <c r="K11">
-        <v>-0.00833333333333333</v>
+        <v>0.00548300199782315</v>
       </c>
       <c r="L11">
-        <v>-0.00833333333333333</v>
+        <v>0.00570790061677776</v>
       </c>
       <c r="M11">
-        <v>-0.00833333333333333</v>
+        <v>0.00679480045396243</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.00689037046938614</v>
       </c>
       <c r="O11">
-        <v>-0.00833333333333333</v>
+        <v>0.00579239468641895</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.00640952170394794</v>
       </c>
       <c r="Q11">
-        <v>-0.00833333333333333</v>
+        <v>0.00807715124544404</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.00742590697195958</v>
       </c>
       <c r="S11">
-        <v>-0.00833333333333333</v>
+        <v>0.00790980250755238</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.00915422393440883</v>
       </c>
       <c r="U11">
-        <v>-0.00833333333333333</v>
+        <v>0.00923416903719427</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>0.00783900663040264</v>
       </c>
       <c r="W11">
-        <v>-0.00833333333333333</v>
+        <v>0.00883904659035789</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.00851205673705138</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.009765836583219</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.0112063339121899</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>0.0156969396084036</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.0198422047988941</v>
       </c>
       <c r="AC11">
-        <v>-0.00833333333333333</v>
+        <v>0.0242759374590499</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>0.022819024958892</v>
       </c>
       <c r="AE11">
-        <v>-0.00833333333333333</v>
+        <v>0.0263457640672774</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.026680123326142</v>
       </c>
       <c r="AG11">
-        <v>-0.00833333333333333</v>
+        <v>0.0321664657779457</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.0299137799601965</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.0290823505902788</v>
       </c>
       <c r="AJ11">
-        <v>-0.00833333333333333</v>
+        <v>0.0301905413132033</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>0.028084437419788</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>0.0317194828298008</v>
       </c>
       <c r="AM11">
-        <v>-0.00833333333333333</v>
+        <v>0.032574931991355</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>0.0308501971595362</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>0.0290085213155213</v>
       </c>
       <c r="AP11">
-        <v>-0.00833333333333333</v>
+        <v>0.0294508253751623</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>0.0301491828630644</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.0298786714780992</v>
       </c>
     </row>
     <row r="12" spans="1:44">
@@ -5407,133 +5410,133 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>1.04771437101748</v>
+        <v>-0.025</v>
       </c>
       <c r="C12">
-        <v>1.04854806657593</v>
+        <v>-0.00833333333333333</v>
       </c>
       <c r="D12">
-        <v>1.05168628651664</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1.05156165442237</v>
+        <v>-0.00833333333333333</v>
       </c>
       <c r="F12">
-        <v>1.05307526943414</v>
+        <v>-0.00833333333333333</v>
       </c>
       <c r="G12">
-        <v>1.05696247511864</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1.05303682471165</v>
+        <v>-0.00833333333333333</v>
       </c>
       <c r="I12">
-        <v>1.05623933445063</v>
+        <v>-0.00833333333333333</v>
       </c>
       <c r="J12">
-        <v>1.0544676335534</v>
+        <v>-0.00833333333333333</v>
       </c>
       <c r="K12">
-        <v>1.05320768602187</v>
+        <v>-0.00833333333333333</v>
       </c>
       <c r="L12">
-        <v>1.05876893194546</v>
+        <v>-0.00833333333333333</v>
       </c>
       <c r="M12">
-        <v>1.05425337788562</v>
+        <v>-0.00833333333333333</v>
       </c>
       <c r="N12">
-        <v>1.05800277684663</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.05422993899021</v>
+        <v>-0.00833333333333333</v>
       </c>
       <c r="P12">
-        <v>1.05794338041888</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.05911451013689</v>
+        <v>-0.00833333333333333</v>
       </c>
       <c r="R12">
-        <v>1.05622619129922</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>1.05916310912443</v>
+        <v>-0.00833333333333333</v>
       </c>
       <c r="T12">
-        <v>1.06127331471171</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>1.05902470840068</v>
+        <v>-0.00833333333333333</v>
       </c>
       <c r="V12">
-        <v>1.05681040295782</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>1.05689541342498</v>
+        <v>-0.00833333333333333</v>
       </c>
       <c r="X12">
-        <v>1.06044917108359</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>1.06156305437053</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>1.06511902492548</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>1.05900554462798</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>1.06411001403572</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>1.06125435944313</v>
+        <v>-0.00833333333333333</v>
       </c>
       <c r="AD12">
-        <v>1.0609424552375</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>1.06043997523424</v>
+        <v>-0.00833333333333333</v>
       </c>
       <c r="AF12">
-        <v>1.05987146419001</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>1.06202590744918</v>
+        <v>-0.00833333333333333</v>
       </c>
       <c r="AH12">
-        <v>1.06059100198082</v>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <v>1.06095932048229</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
-        <v>1.06231998556022</v>
+        <v>-0.00833333333333333</v>
       </c>
       <c r="AK12">
-        <v>1.05901065284209</v>
+        <v>0</v>
       </c>
       <c r="AL12">
-        <v>1.0639210827258</v>
+        <v>0</v>
       </c>
       <c r="AM12">
-        <v>1.06232044352424</v>
+        <v>-0.00833333333333333</v>
       </c>
       <c r="AN12">
-        <v>1.06272610313663</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>1.05926487185493</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.05621901513387</v>
+        <v>-0.00833333333333333</v>
       </c>
       <c r="AQ12">
-        <v>1.06155434718723</v>
+        <v>0</v>
       </c>
       <c r="AR12">
-        <v>1.05781715405405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:44">
@@ -5541,133 +5544,133 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>0.982750921427199</v>
+        <v>1.04771437101748</v>
       </c>
       <c r="C13">
-        <v>0.973965915159812</v>
+        <v>1.04854806657593</v>
       </c>
       <c r="D13">
-        <v>0.975084317718502</v>
+        <v>1.05168628651664</v>
       </c>
       <c r="E13">
-        <v>0.973309452515069</v>
+        <v>1.05156165442237</v>
       </c>
       <c r="F13">
-        <v>0.976368374417126</v>
+        <v>1.05307526943414</v>
       </c>
       <c r="G13">
-        <v>0.974231093113922</v>
+        <v>1.05696247511864</v>
       </c>
       <c r="H13">
-        <v>0.974568377353781</v>
+        <v>1.05303682471165</v>
       </c>
       <c r="I13">
-        <v>0.975975396862163</v>
+        <v>1.05623933445063</v>
       </c>
       <c r="J13">
-        <v>0.974207581846375</v>
+        <v>1.0544676335534</v>
       </c>
       <c r="K13">
-        <v>0.973593100689033</v>
+        <v>1.05320768602187</v>
       </c>
       <c r="L13">
-        <v>0.97400533920461</v>
+        <v>1.05876893194546</v>
       </c>
       <c r="M13">
-        <v>0.973439068190767</v>
+        <v>1.05425337788562</v>
       </c>
       <c r="N13">
-        <v>0.972875179815751</v>
+        <v>1.05800277684663</v>
       </c>
       <c r="O13">
-        <v>0.97430605545427</v>
+        <v>1.05422993899021</v>
       </c>
       <c r="P13">
-        <v>0.973039418857889</v>
+        <v>1.05794338041888</v>
       </c>
       <c r="Q13">
-        <v>0.973776487481212</v>
+        <v>1.05911451013689</v>
       </c>
       <c r="R13">
-        <v>0.972368638585453</v>
+        <v>1.05622619129922</v>
       </c>
       <c r="S13">
-        <v>0.974778436363099</v>
+        <v>1.05916310912443</v>
       </c>
       <c r="T13">
-        <v>0.974101118291214</v>
+        <v>1.06127331471171</v>
       </c>
       <c r="U13">
-        <v>0.973619280964653</v>
+        <v>1.05902470840068</v>
       </c>
       <c r="V13">
-        <v>0.970453682915478</v>
+        <v>1.05681040295782</v>
       </c>
       <c r="W13">
-        <v>0.974192503609368</v>
+        <v>1.05689541342498</v>
       </c>
       <c r="X13">
-        <v>0.973676508821062</v>
+        <v>1.06044917108359</v>
       </c>
       <c r="Y13">
-        <v>0.971292678930447</v>
+        <v>1.06156305437053</v>
       </c>
       <c r="Z13">
-        <v>0.970790338964603</v>
+        <v>1.06511902492548</v>
       </c>
       <c r="AA13">
-        <v>0.971088590807168</v>
+        <v>1.05900554462798</v>
       </c>
       <c r="AB13">
-        <v>0.971895542981805</v>
+        <v>1.06411001403572</v>
       </c>
       <c r="AC13">
-        <v>0.972565788780711</v>
+        <v>1.06125435944313</v>
       </c>
       <c r="AD13">
-        <v>0.968552054675801</v>
+        <v>1.0609424552375</v>
       </c>
       <c r="AE13">
-        <v>0.972012048862971</v>
+        <v>1.06043997523424</v>
       </c>
       <c r="AF13">
-        <v>0.970522735914951</v>
+        <v>1.05987146419001</v>
       </c>
       <c r="AG13">
-        <v>0.971156183225786</v>
+        <v>1.06202590744918</v>
       </c>
       <c r="AH13">
-        <v>0.969423687890882</v>
+        <v>1.06059100198082</v>
       </c>
       <c r="AI13">
-        <v>0.969722029658049</v>
+        <v>1.06095932048229</v>
       </c>
       <c r="AJ13">
-        <v>0.970185302418577</v>
+        <v>1.06231998556022</v>
       </c>
       <c r="AK13">
-        <v>0.968599452777398</v>
+        <v>1.05901065284209</v>
       </c>
       <c r="AL13">
-        <v>0.968697727350377</v>
+        <v>1.0639210827258</v>
       </c>
       <c r="AM13">
-        <v>0.971287949631308</v>
+        <v>1.06232044352424</v>
       </c>
       <c r="AN13">
-        <v>0.967849298139173</v>
+        <v>1.06272610313663</v>
       </c>
       <c r="AO13">
-        <v>0.971658223969009</v>
+        <v>1.05926487185493</v>
       </c>
       <c r="AP13">
-        <v>0.972661854991165</v>
+        <v>1.05621901513387</v>
       </c>
       <c r="AQ13">
-        <v>0.972110371690701</v>
+        <v>1.06155434718723</v>
       </c>
       <c r="AR13">
-        <v>0.971812601175374</v>
+        <v>1.05781715405405</v>
       </c>
     </row>
     <row r="14" spans="1:44">
@@ -5675,133 +5678,133 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>0.988764899207262</v>
+        <v>0.982750921427199</v>
       </c>
       <c r="C14">
-        <v>0.987320001915178</v>
+        <v>0.973965915159812</v>
       </c>
       <c r="D14">
-        <v>0.986296198601854</v>
+        <v>0.975084317718502</v>
       </c>
       <c r="E14">
-        <v>0.985039165306535</v>
+        <v>0.973309452515069</v>
       </c>
       <c r="F14">
-        <v>0.983211379071669</v>
+        <v>0.976368374417126</v>
       </c>
       <c r="G14">
-        <v>0.982929824508369</v>
+        <v>0.974231093113922</v>
       </c>
       <c r="H14">
-        <v>0.98465551033661</v>
+        <v>0.974568377353781</v>
       </c>
       <c r="I14">
-        <v>0.980233891281668</v>
+        <v>0.975975396862163</v>
       </c>
       <c r="J14">
-        <v>0.983015905281803</v>
+        <v>0.974207581846375</v>
       </c>
       <c r="K14">
-        <v>0.979714924308567</v>
+        <v>0.973593100689033</v>
       </c>
       <c r="L14">
-        <v>0.984047761961786</v>
+        <v>0.97400533920461</v>
       </c>
       <c r="M14">
-        <v>0.980223120181585</v>
+        <v>0.973439068190767</v>
       </c>
       <c r="N14">
-        <v>0.980677299954358</v>
+        <v>0.972875179815751</v>
       </c>
       <c r="O14">
-        <v>0.981829593172</v>
+        <v>0.97430605545427</v>
       </c>
       <c r="P14">
-        <v>0.98298667006354</v>
+        <v>0.973039418857889</v>
       </c>
       <c r="Q14">
-        <v>0.980644344316167</v>
+        <v>0.973776487481212</v>
       </c>
       <c r="R14">
-        <v>0.981857308382776</v>
+        <v>0.972368638585453</v>
       </c>
       <c r="S14">
-        <v>0.978502253475768</v>
+        <v>0.974778436363099</v>
       </c>
       <c r="T14">
-        <v>0.98036398361197</v>
+        <v>0.974101118291214</v>
       </c>
       <c r="U14">
-        <v>0.978388262025394</v>
+        <v>0.973619280964653</v>
       </c>
       <c r="V14">
-        <v>0.981484908532334</v>
+        <v>0.970453682915478</v>
       </c>
       <c r="W14">
-        <v>0.980123124447714</v>
+        <v>0.974192503609368</v>
       </c>
       <c r="X14">
-        <v>0.979998829869125</v>
+        <v>0.973676508821062</v>
       </c>
       <c r="Y14">
-        <v>0.980631999423012</v>
+        <v>0.971292678930447</v>
       </c>
       <c r="Z14">
-        <v>0.980387445244486</v>
+        <v>0.970790338964603</v>
       </c>
       <c r="AA14">
-        <v>0.979400257927057</v>
+        <v>0.971088590807168</v>
       </c>
       <c r="AB14">
-        <v>0.978284855299974</v>
+        <v>0.971895542981805</v>
       </c>
       <c r="AC14">
-        <v>0.978927380881988</v>
+        <v>0.972565788780711</v>
       </c>
       <c r="AD14">
-        <v>0.977768259759758</v>
+        <v>0.968552054675801</v>
       </c>
       <c r="AE14">
-        <v>0.976998021745683</v>
+        <v>0.972012048862971</v>
       </c>
       <c r="AF14">
-        <v>0.97468964508435</v>
+        <v>0.970522735914951</v>
       </c>
       <c r="AG14">
-        <v>0.973753209195842</v>
+        <v>0.971156183225786</v>
       </c>
       <c r="AH14">
-        <v>0.974889989773913</v>
+        <v>0.969423687890882</v>
       </c>
       <c r="AI14">
-        <v>0.974234293025847</v>
+        <v>0.969722029658049</v>
       </c>
       <c r="AJ14">
-        <v>0.97561259128777</v>
+        <v>0.970185302418577</v>
       </c>
       <c r="AK14">
-        <v>0.974347935377493</v>
+        <v>0.968599452777398</v>
       </c>
       <c r="AL14">
-        <v>0.974911647429917</v>
+        <v>0.968697727350377</v>
       </c>
       <c r="AM14">
-        <v>0.974832414625625</v>
+        <v>0.971287949631308</v>
       </c>
       <c r="AN14">
-        <v>0.971963375856674</v>
+        <v>0.967849298139173</v>
       </c>
       <c r="AO14">
-        <v>0.97327781702286</v>
+        <v>0.971658223969009</v>
       </c>
       <c r="AP14">
-        <v>0.973857679286244</v>
+        <v>0.972661854991165</v>
       </c>
       <c r="AQ14">
-        <v>0.974999198105191</v>
+        <v>0.972110371690701</v>
       </c>
       <c r="AR14">
-        <v>0.973966868898018</v>
+        <v>0.971812601175374</v>
       </c>
     </row>
     <row r="15" spans="1:44">
@@ -5809,132 +5812,266 @@
         <v>27</v>
       </c>
       <c r="B15">
+        <v>0.988764899207262</v>
+      </c>
+      <c r="C15">
+        <v>0.987320001915178</v>
+      </c>
+      <c r="D15">
+        <v>0.986296198601854</v>
+      </c>
+      <c r="E15">
+        <v>0.985039165306535</v>
+      </c>
+      <c r="F15">
+        <v>0.983211379071669</v>
+      </c>
+      <c r="G15">
+        <v>0.982929824508369</v>
+      </c>
+      <c r="H15">
+        <v>0.98465551033661</v>
+      </c>
+      <c r="I15">
+        <v>0.980233891281668</v>
+      </c>
+      <c r="J15">
+        <v>0.983015905281803</v>
+      </c>
+      <c r="K15">
+        <v>0.979714924308567</v>
+      </c>
+      <c r="L15">
+        <v>0.984047761961786</v>
+      </c>
+      <c r="M15">
+        <v>0.980223120181585</v>
+      </c>
+      <c r="N15">
+        <v>0.980677299954358</v>
+      </c>
+      <c r="O15">
+        <v>0.981829593172</v>
+      </c>
+      <c r="P15">
+        <v>0.98298667006354</v>
+      </c>
+      <c r="Q15">
+        <v>0.980644344316167</v>
+      </c>
+      <c r="R15">
+        <v>0.981857308382776</v>
+      </c>
+      <c r="S15">
+        <v>0.978502253475768</v>
+      </c>
+      <c r="T15">
+        <v>0.98036398361197</v>
+      </c>
+      <c r="U15">
+        <v>0.978388262025394</v>
+      </c>
+      <c r="V15">
+        <v>0.981484908532334</v>
+      </c>
+      <c r="W15">
+        <v>0.980123124447714</v>
+      </c>
+      <c r="X15">
+        <v>0.979998829869125</v>
+      </c>
+      <c r="Y15">
+        <v>0.980631999423012</v>
+      </c>
+      <c r="Z15">
+        <v>0.980387445244486</v>
+      </c>
+      <c r="AA15">
+        <v>0.979400257927057</v>
+      </c>
+      <c r="AB15">
+        <v>0.978284855299974</v>
+      </c>
+      <c r="AC15">
+        <v>0.978927380881988</v>
+      </c>
+      <c r="AD15">
+        <v>0.977768259759758</v>
+      </c>
+      <c r="AE15">
+        <v>0.976998021745683</v>
+      </c>
+      <c r="AF15">
+        <v>0.97468964508435</v>
+      </c>
+      <c r="AG15">
+        <v>0.973753209195842</v>
+      </c>
+      <c r="AH15">
+        <v>0.974889989773913</v>
+      </c>
+      <c r="AI15">
+        <v>0.974234293025847</v>
+      </c>
+      <c r="AJ15">
+        <v>0.97561259128777</v>
+      </c>
+      <c r="AK15">
+        <v>0.974347935377493</v>
+      </c>
+      <c r="AL15">
+        <v>0.974911647429917</v>
+      </c>
+      <c r="AM15">
+        <v>0.974832414625625</v>
+      </c>
+      <c r="AN15">
+        <v>0.971963375856674</v>
+      </c>
+      <c r="AO15">
+        <v>0.97327781702286</v>
+      </c>
+      <c r="AP15">
+        <v>0.973857679286244</v>
+      </c>
+      <c r="AQ15">
+        <v>0.974999198105191</v>
+      </c>
+      <c r="AR15">
+        <v>0.973966868898018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
         <v>0.916491845875836</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>0.914850300052011</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>0.914246375459668</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>0.914529266667618</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>0.91445814436169</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>0.915401980091079</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>0.915424384795078</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>0.91537345088519</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>0.915366166094752</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>0.91355852443877</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>0.919159799194152</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>0.913315976221558</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <v>0.915705341049479</v>
       </c>
-      <c r="O15">
+      <c r="O16">
         <v>0.915131403729731</v>
       </c>
-      <c r="P15">
+      <c r="P16">
         <v>0.91751950691729</v>
       </c>
-      <c r="Q15">
+      <c r="Q16">
         <v>0.916202959884467</v>
       </c>
-      <c r="R15">
+      <c r="R16">
         <v>0.914668045289101</v>
       </c>
-      <c r="S15">
+      <c r="S16">
         <v>0.91542017761218</v>
       </c>
-      <c r="T15">
+      <c r="T16">
         <v>0.917193935045437</v>
       </c>
-      <c r="U15">
+      <c r="U16">
         <v>0.91469787797239</v>
       </c>
-      <c r="V15">
+      <c r="V16">
         <v>0.91457949786206</v>
       </c>
-      <c r="W15">
+      <c r="W16">
         <v>0.913828036987212</v>
       </c>
-      <c r="X15">
+      <c r="X16">
         <v>0.916566130660271</v>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <v>0.917001565450376</v>
       </c>
-      <c r="Z15">
+      <c r="Z16">
         <v>0.917267396694993</v>
       </c>
-      <c r="AA15">
+      <c r="AA16">
         <v>0.911708749347087</v>
       </c>
-      <c r="AB15">
+      <c r="AB16">
         <v>0.912854712299218</v>
       </c>
-      <c r="AC15">
+      <c r="AC16">
         <v>0.908872035427803</v>
       </c>
-      <c r="AD15">
+      <c r="AD16">
         <v>0.908983898851118</v>
       </c>
-      <c r="AE15">
+      <c r="AE16">
         <v>0.906901067861293</v>
       </c>
-      <c r="AF15">
+      <c r="AF16">
         <v>0.90669032780754</v>
       </c>
-      <c r="AG15">
+      <c r="AG16">
         <v>0.906329209626524</v>
       </c>
-      <c r="AH15">
+      <c r="AH16">
         <v>0.906183565202696</v>
       </c>
-      <c r="AI15">
+      <c r="AI16">
         <v>0.906039899771117</v>
       </c>
-      <c r="AJ15">
+      <c r="AJ16">
         <v>0.907035664227185</v>
       </c>
-      <c r="AK15">
+      <c r="AK16">
         <v>0.905036009430235</v>
       </c>
-      <c r="AL15">
+      <c r="AL16">
         <v>0.90805105704621</v>
       </c>
-      <c r="AM15">
+      <c r="AM16">
         <v>0.906604686071132</v>
       </c>
-      <c r="AN15">
+      <c r="AN16">
         <v>0.906636474611041</v>
       </c>
-      <c r="AO15">
+      <c r="AO16">
         <v>0.905812432723596</v>
       </c>
-      <c r="AP15">
+      <c r="AP16">
         <v>0.903836296826833</v>
       </c>
-      <c r="AQ15">
+      <c r="AQ16">
         <v>0.908272787580491</v>
       </c>
-      <c r="AR15">
+      <c r="AR16">
         <v>0.904722370810301</v>
       </c>
     </row>
